--- a/TopicsAndResources.xlsx
+++ b/TopicsAndResources.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MaximLearn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\azure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E219A4-6855-4BAA-9968-E98279E2C9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3676C52-49F5-4577-9EC3-06078D437C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1FB09232-AE1C-42D0-8B8D-1C0793834D87}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1FB09232-AE1C-42D0-8B8D-1C0793834D87}"/>
   </bookViews>
   <sheets>
     <sheet name="Templates" sheetId="1" r:id="rId1"/>
-    <sheet name="YouTube Videos" sheetId="2" r:id="rId2"/>
-    <sheet name="Architectures" sheetId="3" r:id="rId3"/>
+    <sheet name="ExamsHelper" sheetId="4" r:id="rId2"/>
+    <sheet name="YouTube Videos" sheetId="2" r:id="rId3"/>
+    <sheet name="Architectures" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>https://docs.microsoft.com/en-us/azure/governance/policy/assign-policy-template</t>
   </si>
@@ -60,6 +61,15 @@
   </si>
   <si>
     <t>Windows N-tier application on Azure - Azure Architecture Center | Microsoft Docs</t>
+  </si>
+  <si>
+    <t>Terraform :-</t>
+  </si>
+  <si>
+    <t>https://free-braindumps.com/hashicorp/free-hashicorp-certified-terraform-associate-braindumps.html</t>
+  </si>
+  <si>
+    <t>Terraform Associate braindumps</t>
   </si>
 </sst>
 </file>
@@ -462,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F03F91A-E09D-461C-BDF5-A67875A2D546}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,6 +523,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6045AA-AE33-4E50-8491-55D7E47F1788}">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="69.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B13456C-947F-49C4-9801-88B46194F3E1}">
   <dimension ref="B2:C4"/>
   <sheetViews>
@@ -555,12 +606,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625841E0-ADD1-4756-A1D0-C2C8E60E5189}">
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
